--- a/SQL_quan_li/QLQA.xlsx
+++ b/SQL_quan_li/QLQA.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\visual studio\Quanliquanan\SQL_quan_li\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EBF351-0A83-4FC9-8A86-C2D5BD70001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB157F9-5B84-4D0A-80AB-7905F643CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="2880" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{2DB1A265-C8D1-4C52-8E89-AA42250898B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{2DB1A265-C8D1-4C52-8E89-AA42250898B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ROLE" sheetId="2" r:id="rId1"/>
     <sheet name="EMPLOYEE" sheetId="3" r:id="rId2"/>
-    <sheet name="CATEGORY" sheetId="4" r:id="rId3"/>
-    <sheet name="TABLEQA" sheetId="5" r:id="rId4"/>
-    <sheet name="ORDER_QA" sheetId="6" r:id="rId5"/>
+    <sheet name="ACCOUNT" sheetId="9" r:id="rId3"/>
+    <sheet name="CATEGORY" sheetId="4" r:id="rId4"/>
+    <sheet name="TABLEQA" sheetId="5" r:id="rId5"/>
     <sheet name="FOOD" sheetId="1" r:id="rId6"/>
-    <sheet name="ORDER_FOOD" sheetId="7" r:id="rId7"/>
-    <sheet name="REVENUE" sheetId="8" r:id="rId8"/>
+    <sheet name="ORDER_QA" sheetId="6" r:id="rId7"/>
+    <sheet name="ORDER_FOOD" sheetId="7" r:id="rId8"/>
+    <sheet name="REVENUE" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +50,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>Chủ</t>
-  </si>
-  <si>
     <t>Nhân viên</t>
   </si>
   <si>
@@ -112,9 +110,6 @@
     <t>huutien12</t>
   </si>
   <si>
-    <t>Trihuu125.</t>
-  </si>
-  <si>
     <t>Trần Hữu Trí</t>
   </si>
   <si>
@@ -127,12 +122,6 @@
     <t>tritran5789@gmail.com</t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Đinh Thị Kim Thảo</t>
-  </si>
-  <si>
     <t>Nước uống</t>
   </si>
   <si>
@@ -212,6 +201,21 @@
   </si>
   <si>
     <t>Bàn trống</t>
+  </si>
+  <si>
+    <t>EMPLOYEEid</t>
+  </si>
+  <si>
+    <t>Trần Hữu Tiến</t>
+  </si>
+  <si>
+    <t>Người quản lí</t>
+  </si>
+  <si>
+    <t>0857350234</t>
+  </si>
+  <si>
+    <t>0946839482</t>
   </si>
 </sst>
 </file>
@@ -220,7 +224,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss\ d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss\ d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss\ d/m/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -289,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,9 +323,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -637,19 +651,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0BECAD-97D9-4795-9FB3-29FBC8F38228}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,20 +671,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"insert into ROLE (ID, NAME) values ('"&amp;A2&amp;"','"&amp;B2&amp;"')"</f>
+        <v>insert into ROLE (ID, NAME) values ('0','Nhân viên')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"insert into ROLE (ID, NAME) values ('"&amp;A3&amp;"','"&amp;B3&amp;"')"</f>
+        <v>insert into ROLE (ID, NAME) values ('1','Người quản lí')</v>
       </c>
     </row>
   </sheetData>
@@ -683,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2B1AE9-F5EF-4E82-8F14-93471B4B522A}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,8 +717,8 @@
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,57 +726,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5">
-        <v>857350234</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
+      <c r="G2" s="12"/>
+      <c r="H2" t="str">
+        <f>"insert into EMPLOYEE (ID, FULLNAME,ADDRESS, PHONE, SEX, EMAIL) values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>insert into EMPLOYEE (ID, FULLNAME,ADDRESS, PHONE, SEX, EMAIL) values ('1','Trần Hữu Trí','95/20/18B Lê Văn Lương, Tân Kiểng, Quận 7','0857350234','Nam','tritran5789@gmail.com')</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -762,115 +772,111 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5">
-        <v>946839482</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="12"/>
+      <c r="H3" t="str">
+        <f>"insert into EMPLOYEE (ID, FULLNAME,ADDRESS, PHONE, SEX, EMAIL) values ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>insert into EMPLOYEE (ID, FULLNAME,ADDRESS, PHONE, SEX, EMAIL) values ('2','Trần Hữu Tiến','95/20/18B Lê Văn Lương, Tân Kiểng, Quận 7','0946839482','Nam','')</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -919,18 +925,109 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{8807B2C2-97EA-46C3-8B92-ABCAD472E618}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8807B2C2-97EA-46C3-8B92-ABCAD472E618}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C588ABA1-AFF3-4A2F-AA6C-8C0255946BFD}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71B207-8BB7-4E3B-91A5-FA42533B26B0}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"insert into ACCOUNT (EMPLOYEEid, ROLEid,USERNAME, PASSWORD) values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"')"</f>
+        <v>insert into ACCOUNT (EMPLOYEEid, ROLEid,USERNAME, PASSWORD) values ('1','0','tritran15','123456')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12345</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"insert into ACCOUNT (EMPLOYEEid, ROLEid,USERNAME, PASSWORD) values ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"')"</f>
+        <v>insert into ACCOUNT (EMPLOYEEid, ROLEid,USERNAME, PASSWORD) values ('2','1','huutien12','12345')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C588ABA1-AFF3-4A2F-AA6C-8C0255946BFD}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +1035,7 @@
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -946,44 +1043,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"insert into CATEGORY (ID, NAME) values ('"&amp;A2&amp;"','"&amp;B2&amp;"')"</f>
+        <v>insert into CATEGORY (ID, NAME) values ('1','Nước uống')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="0">"insert into CATEGORY (ID, NAME) values ('"&amp;A3&amp;"','"&amp;B3&amp;"')"</f>
+        <v>insert into CATEGORY (ID, NAME) values ('2','Cơm')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CATEGORY (ID, NAME) values ('3','Lẩu')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CATEGORY (ID, NAME) values ('4','Rau củ')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CATEGORY (ID, NAME) values ('5','Món xào')</v>
       </c>
     </row>
   </sheetData>
@@ -991,12 +1108,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB53A525-C726-427C-A923-C95A9CC41AFF}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1121,7 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1012,292 +1129,218 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"insert into TABLEQA (ID, NAME, STATUS) values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"')"</f>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('1','Bàn 1','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E15" si="0">"insert into TABLEQA (ID, NAME, STATUS) values ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"')"</f>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('2','Bàn 2','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('3','Bàn 3','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('4','Bàn 4','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('5','Bàn 5','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('6','Bàn 6','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('7','Bàn 7','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('8','Bàn 8','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('9','Bàn 9','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('10','Bàn 10','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('11','Bàn 11','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('12','Bàn 12','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('13','Bàn 13','Bàn trống')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26882F37-43B7-427A-8CE6-8D23DA29C6CF}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>44085.812638888892</v>
-      </c>
-      <c r="D2" s="9">
-        <v>44085.854305555556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>44176.354166666664</v>
-      </c>
-      <c r="D3" s="10">
-        <v>44176.375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10">
-        <v>44177.361111111109</v>
-      </c>
-      <c r="D4" s="10">
-        <v>44177.375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>44178.402777777781</v>
-      </c>
-      <c r="D5" s="10">
-        <v>44178.416666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10">
-        <v>44179.354166666664</v>
-      </c>
-      <c r="D6" s="10">
-        <v>44179.368055555555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>44180.354166666664</v>
-      </c>
-      <c r="D7" s="10">
-        <v>44180.416666666664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <v>44181.645833333336</v>
-      </c>
-      <c r="D8" s="11">
-        <v>44181.6875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, STATUS) values ('14','Bàn 14','Bàn trống')</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1306,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C6F076-9BC0-492D-9B3E-8948A9105DEC}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1361,7 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1326,18 +1369,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1345,13 +1388,17 @@
       <c r="D2" s="7">
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"')"</f>
+        <v>insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('1','Cocacola','1','5000')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -1359,13 +1406,17 @@
       <c r="D3" s="7">
         <v>35000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F8" si="0">"insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"')"</f>
+        <v>insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('2','Cơm bò xào','2','35000')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
@@ -1373,13 +1424,17 @@
       <c r="D4" s="7">
         <v>35000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('3','Cơm chiên cá mặn','2','35000')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -1387,13 +1442,17 @@
       <c r="D5" s="7">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('4','Lẩu cá','3','200000')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -1401,13 +1460,17 @@
       <c r="D6" s="7">
         <v>30000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('5','Rau muống xào','4','30000')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -1415,13 +1478,17 @@
       <c r="D7" s="7">
         <v>60000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('6','Bò xào chua ngọt','5','60000')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -1429,14 +1496,18 @@
       <c r="D8" s="7">
         <v>80000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into TABLEQA (ID, NAME, CATEid, PRICE) values ('7','Mực xào cải ngọt','5','80000')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1448,11 +1519,184 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4970CDA3-5679-4B76-AAB4-2A3F52CBEBBE}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26882F37-43B7-427A-8CE6-8D23DA29C6CF}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>44085.812638888892</v>
+      </c>
+      <c r="D2" s="9">
+        <v>44085.854305555556</v>
+      </c>
+      <c r="F2" s="15" t="str">
+        <f>"insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;TEXT(C2,"H:MM:ss dd/mm/yyyy")&amp;"','"&amp;TEXT(D2,"H:MM:ss dd/mm/yyyy")&amp;"')"</f>
+        <v>insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('1','1','19:30:12 11/09/2020','20:30:12 11/09/2020')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>44176.354166666664</v>
+      </c>
+      <c r="D3" s="10">
+        <v>44176.375</v>
+      </c>
+      <c r="F3" s="15" t="str">
+        <f t="shared" ref="F3:F8" si="0">"insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;TEXT(C3,"H:MM:ss dd/mm/yyyy")&amp;"','"&amp;TEXT(D3,"H:MM:ss dd/mm/yyyy")&amp;"')"</f>
+        <v>insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('2','3','8:30:00 11/12/2020','9:00:00 11/12/2020')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44177.361111111109</v>
+      </c>
+      <c r="D4" s="10">
+        <v>44177.375</v>
+      </c>
+      <c r="F4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('3','3','8:40:00 12/12/2020','9:00:00 12/12/2020')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44178.402777777781</v>
+      </c>
+      <c r="D5" s="10">
+        <v>44178.416666666664</v>
+      </c>
+      <c r="F5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('4','4','9:40:00 13/12/2020','10:00:00 13/12/2020')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44179.354166666664</v>
+      </c>
+      <c r="D6" s="10">
+        <v>44179.368055555555</v>
+      </c>
+      <c r="F6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('5','2','8:30:00 14/12/2020','8:50:00 14/12/2020')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44180.354166666664</v>
+      </c>
+      <c r="D7" s="10">
+        <v>44180.416666666664</v>
+      </c>
+      <c r="F7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('6','2','8:30:00 15/12/2020','10:00:00 15/12/2020')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44181.645833333336</v>
+      </c>
+      <c r="D8" s="11">
+        <v>44181.6875</v>
+      </c>
+      <c r="F8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_QA(ID, TABLEid,CHECKIN, CHECKOUT) values ('7','1','15:30:00 16/12/2020','16:30:00 16/12/2020')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4970CDA3-5679-4B76-AAB4-2A3F52CBEBBE}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,18 +1705,18 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1482,8 +1726,12 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>"insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"')"</f>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('1','1','1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1493,8 +1741,12 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E10" si="0">"insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"')"</f>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('1','2','1')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1504,8 +1756,12 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('3','1','1')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1515,8 +1771,12 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('4','4','2')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1526,8 +1786,12 @@
       <c r="C6" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('4','1','15')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1537,8 +1801,12 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('4','5','1')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1548,8 +1816,12 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('5','3','1')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1559,8 +1831,12 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('6','2','1')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1569,6 +1845,10 @@
       </c>
       <c r="C10" s="2">
         <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ORDER_FOOD (ORDERid, FOODid, QUANTITY) values ('7','7','1')</v>
       </c>
     </row>
   </sheetData>
@@ -1576,12 +1856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F383E2F-78B1-429C-A901-EB9788D66AF1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,21 +1872,21 @@
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1619,8 +1899,12 @@
       <c r="D2" s="9">
         <v>44085.854305555556</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;TEXT(C2,"H:MM:ss dd/mm/yyyy")&amp;"','"&amp;TEXT(D2,"H:MM:ss dd/mm/yyyy")&amp;"')"</f>
+        <v>insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('1','1','19:30:12 11/09/2020','20:30:12 11/09/2020')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1633,8 +1917,12 @@
       <c r="D3" s="10">
         <v>44176.375</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F8" si="0">"insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;TEXT(C3,"H:MM:ss dd/mm/yyyy")&amp;"','"&amp;TEXT(D3,"H:MM:ss dd/mm/yyyy")&amp;"')"</f>
+        <v>insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('2','3','8:30:00 11/12/2020','9:00:00 11/12/2020')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1647,8 +1935,12 @@
       <c r="D4" s="10">
         <v>44177.375</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('3','3','8:40:00 12/12/2020','9:00:00 12/12/2020')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1661,8 +1953,12 @@
       <c r="D5" s="10">
         <v>44178.416666666664</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('4','4','9:40:00 13/12/2020','10:00:00 13/12/2020')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1675,8 +1971,12 @@
       <c r="D6" s="10">
         <v>44179.368055555555</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('5','2','8:30:00 14/12/2020','8:50:00 14/12/2020')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1689,8 +1989,12 @@
       <c r="D7" s="10">
         <v>44180.416666666664</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('6','2','8:30:00 15/12/2020','10:00:00 15/12/2020')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1703,14 +2007,18 @@
       <c r="D8" s="11">
         <v>44181.6875</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into REVENUE(ID, TABLEid,CHECKIN, CHECKOUT) values ('7','1','15:30:00 16/12/2020','16:30:00 16/12/2020')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
